--- a/R/Included/Methods_table.xlsx
+++ b/R/Included/Methods_table.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPersad\Documents\GitHub\Systematic_lit_review\R\Included\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrf_g\Documents\GitHub\Systematic_lit_review\R\Included\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8EB787-8A35-4196-A4B2-A1CCBE1DDDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30270" windowHeight="15000"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="19965" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods_table" sheetId="1" r:id="rId1"/>
-    <sheet name="auto grouped" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="auto grouped" sheetId="8" r:id="rId3"/>
+    <sheet name="auto grouped_old" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="363">
   <si>
     <t>CovidenceID</t>
   </si>
@@ -976,9 +978,6 @@
     <t>Maganaris et al.</t>
   </si>
   <si>
-    <t>O'Brien et al.</t>
-  </si>
-  <si>
     <t>Fukunaga et al.</t>
   </si>
   <si>
@@ -991,9 +990,6 @@
     <t>Reeves et al.</t>
   </si>
   <si>
-    <t>Nygaard et al.</t>
-  </si>
-  <si>
     <t>Valamatos et al.</t>
   </si>
   <si>
@@ -1007,9 +1003,6 @@
   </si>
   <si>
     <t>Dowling et al.</t>
-  </si>
-  <si>
-    <t>Klitgaard et al.</t>
   </si>
   <si>
     <t>method_descriptions</t>
@@ -1807,11 +1800,260 @@
       <t>(5) Morse et al.(20)</t>
     </r>
   </si>
+  <si>
+    <t>McPhee 2018</t>
+  </si>
+  <si>
+    <t>Morse 2007</t>
+  </si>
+  <si>
+    <t>Marchetta 2012</t>
+  </si>
+  <si>
+    <t>Akagi 2009</t>
+  </si>
+  <si>
+    <t>Klein 2001</t>
+  </si>
+  <si>
+    <t>Elbow Extensors</t>
+  </si>
+  <si>
+    <t>Bamman 2000</t>
+  </si>
+  <si>
+    <t>Maden-Wilkinson 2020</t>
+  </si>
+  <si>
+    <t>Kubo 2006</t>
+  </si>
+  <si>
+    <t>Erskine 2011</t>
+  </si>
+  <si>
+    <t>Kawakami 1994</t>
+  </si>
+  <si>
+    <t>Erskine 2010</t>
+  </si>
+  <si>
+    <t>Erskine 2009</t>
+  </si>
+  <si>
+    <t>Erskine 2010b</t>
+  </si>
+  <si>
+    <t>Maganaris 2001</t>
+  </si>
+  <si>
+    <t>O'Brien 2010</t>
+  </si>
+  <si>
+    <t>Fukunaga 1996</t>
+  </si>
+  <si>
+    <t>Binder-Markey 2023</t>
+  </si>
+  <si>
+    <t>Narici 1996</t>
+  </si>
+  <si>
+    <t>Reeves 2004</t>
+  </si>
+  <si>
+    <t>Morse 2008</t>
+  </si>
+  <si>
+    <t>Morse 2005</t>
+  </si>
+  <si>
+    <t>Nygaard 1983</t>
+  </si>
+  <si>
+    <t>Valamatos 2018</t>
+  </si>
+  <si>
+    <t>Gorgey 2006</t>
+  </si>
+  <si>
+    <t>Sims 2018</t>
+  </si>
+  <si>
+    <t>Aagaard 2001</t>
+  </si>
+  <si>
+    <t>Narici 1992</t>
+  </si>
+  <si>
+    <t>Dowling 1994</t>
+  </si>
+  <si>
+    <t>Klitgaard 1990</t>
+  </si>
+  <si>
+    <t>• MVC torque measured
+• Component tendon force calculated using relative PCSA x MA
+• Moment arm corresponding to max. torque joint angle taken from literature
+• Muscle volume not used in calculation
+• Fascicle length not used in calculation
+• Pennation angle not used in calculation
+• ACSA=Max. ACSA measured (CT) during rest</t>
+  </si>
+  <si>
+    <t>Marchetta et al. Marchetta et al. Marchetta et al.</t>
+  </si>
+  <si>
+    <t>Biceps Brachii Brachialis Brachioradialis</t>
+  </si>
+  <si>
+    <t>53.407 56.51 53.452</t>
+  </si>
+  <si>
+    <t>Kawakami et al. Kawakami et al. Kawakami et al.</t>
+  </si>
+  <si>
+    <t>72.3 72.3 71.9</t>
+  </si>
+  <si>
+    <t>• MVC torque measured
+• Component tendon force calculated using relative contribution taken from literature
+• Moment arm corresponding to max. torque joint angle taken from literature
+• Muscle volume not used in calculation
+• Fascicle length not used in calculation
+• Pennation angle not used in calculation
+• ACSA=Max. ACSA measured (CT) during rest and corrected using literature data to correspond to ACSA during max. Torque</t>
+  </si>
+  <si>
+    <t>2899 2820</t>
+  </si>
+  <si>
+    <t>Nygaard et al. Klitgaard et al.</t>
+  </si>
+  <si>
+    <t>1983 1990</t>
+  </si>
+  <si>
+    <t>Biceps Brachii Elbow Flexors</t>
+  </si>
+  <si>
+    <t>35.6 65.4</t>
+  </si>
+  <si>
+    <t>• MVC torque measured
+• Tendon force approximated from external limb force
+• Limb length used as moment arm
+• Muscle volume not used in calculation
+• Fascicle length not used in calculation
+• Pennation angle not used in calculation
+• ACSA=Max. ACSA measured (MRI)</t>
+  </si>
+  <si>
+    <t>Fukunaga et al. Fukunaga et al. Fukunaga et al.</t>
+  </si>
+  <si>
+    <t>Triceps Surae Plantar Flexors Dorsiflexor</t>
+  </si>
+  <si>
+    <t>10.8 8.0 24.5</t>
+  </si>
+  <si>
+    <t>2938 4135</t>
+  </si>
+  <si>
+    <t>8.9 13.1</t>
+  </si>
+  <si>
+    <t>2009 2010</t>
+  </si>
+  <si>
+    <t>25.6 29.1</t>
+  </si>
+  <si>
+    <t>Erskine 2010b Erskine et al.</t>
+  </si>
+  <si>
+    <t>29.5 30.3</t>
+  </si>
+  <si>
+    <t>2648 2664</t>
+  </si>
+  <si>
+    <t>2011 2010</t>
+  </si>
+  <si>
+    <t>26.5 55.02</t>
+  </si>
+  <si>
+    <t>• MVC torque measured with EMG to correct for antagonist activation
+• Component tendon force calculated using relative PCSA
+• Moment arm measured (MRI) during rest and corrected using literature values to correspond to max. torque joint angle 
+• Muscle volume estimated by summation of MRI axial images
+• Fascicle length measured (US) during max. torque trial
+• Pennation angle measured during max. torque trial
+• PCSA= (Muscle vol/Fiber length)*cos(pennation angle)</t>
+  </si>
+  <si>
+    <t>• MVC torque measured with EMG to correct for antagonist activation
+• Tendon force= TQ/MA
+• Moment arm measured (MRI) during rest and corrected using literature values to correspond to max. torque joint angle 
+• Muscle volume estimated by summation of MRI axial images
+• Fascicle length measured (US) during rest
+• Pennation angle measured during max. torque trial
+• PCSA= (Muscle vol/Fiber length)*cos(pennation angle)</t>
+  </si>
+  <si>
+    <t>• MVC torque measured with gravity correction
+• Component tendon force calculated using relative contribution taken from literature
+• Moment arm corresponding to max. torque joint angle taken from literature
+• Muscle volume estimated by summation of MRI axial images
+• Fascicle length taken from literature
+• Pennation angle measured during max. torque trial
+• PCSA= (Muscle vol/Fiber length)*cos(pennation angle)</t>
+  </si>
+  <si>
+    <t>Maganaris et al. Maganaris et al.</t>
+  </si>
+  <si>
+    <t>Soleus Tibialis Anterior</t>
+  </si>
+  <si>
+    <t>10.4 65.8</t>
+  </si>
+  <si>
+    <t>15.0 15.5</t>
+  </si>
+  <si>
+    <t>• Max. torque measured (surface neuromuscular electrical stimulation)
+• Tendon force= TQ/MA
+• Moment arm corresponding to max. torque joint angle taken from literature. This value was corrected for cadaver shrinkage and changes during MVC. 
+• Muscle volume estimated by summation of MRI axial images
+• Fascicle length calculated from measured muscle length and literature ratio
+• Pennation angle taken from literature
+• PCSA= (Muscle vol/Fiber length)*cos(pennation angle)</t>
+  </si>
+  <si>
+    <t>• Torque not used in calculation
+• Tendon force approximated from external limb force
+• Moment arm corresponding to max. torque joint angle taken from literature
+• Muscle volume estimated by summation of MRI axial images
+• Fascicle length measured (MRI) during rest
+• Pennation angle measured during max. torque trial
+• PCSA= (Muscle vol/muscle thickness)*sin(pennation angle)</t>
+  </si>
+  <si>
+    <t>Narici et al. Narici et al. Narici et al. Narici et al.</t>
+  </si>
+  <si>
+    <t>Vastus Lateralis Vastus Intermedius Vastus Medialis Rectus Femoris</t>
+  </si>
+  <si>
+    <t>23.7 24.1 27.9 24.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2368,19 +2610,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2426,21 +2665,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2761,3943 +2992,3943 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
-    <col min="6" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="29.28515625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="29" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>4162</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2">
         <v>2018</v>
       </c>
       <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>23</v>
       </c>
-      <c r="F2" s="1">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>231</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>262</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>5555</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>29</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>4135</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3">
         <v>2007</v>
       </c>
       <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
+        <v>21</v>
+      </c>
+      <c r="F3">
         <v>72.7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>27.2</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>262.89999999999998</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>8.9</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" t="s">
         <v>51</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AA3" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AB3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>4128</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4">
         <v>2012</v>
       </c>
       <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>4056.6</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>53.406999999999996</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" t="s">
         <v>60</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>4128</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>1598.6</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>56.51</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>4128</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>2106</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6">
         <v>53.451999999999998</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>4127</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7">
         <v>2009</v>
       </c>
       <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7">
         <v>24.3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>18.2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>61.1</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>265</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>14.7</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2995</v>
+      </c>
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>2001</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>22.6</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8">
+        <v>292</v>
+      </c>
+      <c r="S8">
+        <v>5.5</v>
+      </c>
+      <c r="T8" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Y8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="AA8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>2995</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="1">
-        <v>292</v>
-      </c>
-      <c r="S8" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2995</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9">
         <v>2001</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>22.6</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>20.2</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>16.5</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" t="s">
         <v>79</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" t="s">
         <v>77</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AB9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>2837</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>291.2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="S10">
+        <v>1.97</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11">
+        <v>174.4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11">
+        <v>5576</v>
+      </c>
+      <c r="S11">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="B12">
+        <v>2821</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12">
+        <v>2006</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="Q12">
+        <v>224</v>
+      </c>
+      <c r="R12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12">
+        <v>23.1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2664</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13">
+        <v>2011</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="1">
-        <v>291.2</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" s="1">
-        <v>568.20000000000005</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1.97</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y10" s="1" t="s">
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13">
+        <v>238</v>
+      </c>
+      <c r="Q13">
+        <v>248</v>
+      </c>
+      <c r="R13">
+        <v>5809</v>
+      </c>
+      <c r="S13">
+        <v>25.9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" t="s">
+        <v>105</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2833</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1">
-        <v>52</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="1">
-        <v>174.4</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="1">
-        <v>5576</v>
-      </c>
-      <c r="S11" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z13" t="s">
         <v>40</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2821</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2006</v>
-      </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="1">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>224</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12" s="1">
-        <v>23.1</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2680</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E13">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="1">
-        <v>231</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>269</v>
-      </c>
-      <c r="R13" s="1">
-        <v>6296</v>
-      </c>
-      <c r="S13" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" t="s">
         <v>96</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2677</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14">
         <v>1994</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>29</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>9.1</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>28.2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>660.3</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14">
         <v>72.3</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>56</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" t="s">
         <v>57</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" t="s">
         <v>99</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" t="s">
         <v>79</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" t="s">
         <v>59</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AB14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>2677</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15">
         <v>1994</v>
       </c>
       <c r="E15">
         <v>15</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>29</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <v>12.7</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>20.399999999999999</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15">
         <v>910.9</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15">
         <v>72.3</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" t="s">
         <v>34</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>56</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>69</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" t="s">
         <v>79</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" t="s">
         <v>59</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" t="s">
         <v>100</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AB15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>2677</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16">
         <v>1994</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>29</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <v>3.2</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16">
         <v>11.41</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16">
         <v>226.4</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16">
         <v>71.900000000000006</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>56</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>69</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" t="s">
         <v>57</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" t="s">
         <v>99</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" t="s">
         <v>79</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" t="s">
         <v>59</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AA16" t="s">
         <v>100</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AB16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2677</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17">
         <v>1994</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>29</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>25</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <v>59.9</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17">
         <v>1819.5</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17">
         <v>72.7</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" t="s">
         <v>34</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>56</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>69</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" t="s">
         <v>99</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" t="s">
         <v>79</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" t="s">
         <v>40</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" t="s">
         <v>100</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>2677</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18">
         <v>1994</v>
       </c>
       <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18">
+        <v>46.8</v>
+      </c>
+      <c r="Q18">
+        <v>67.7</v>
+      </c>
+      <c r="R18">
+        <v>3008.6</v>
+      </c>
+      <c r="S18">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2653</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19">
+        <v>2010</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G19">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="1">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19">
+        <v>237</v>
+      </c>
+      <c r="Q19">
+        <v>246</v>
+      </c>
+      <c r="R19">
+        <v>5722</v>
+      </c>
+      <c r="S19">
+        <v>25.6</v>
+      </c>
+      <c r="T19" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" t="s">
+        <v>105</v>
+      </c>
+      <c r="W19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2649</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20">
+        <v>2009</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>21.3</v>
+      </c>
+      <c r="G20">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J20" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M20" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N20" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="1">
-        <v>46.8</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>67.7</v>
-      </c>
-      <c r="R18" s="1">
-        <v>3008.6</v>
-      </c>
-      <c r="S18" s="1">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20">
+        <v>236</v>
+      </c>
+      <c r="Q20">
+        <v>264</v>
+      </c>
+      <c r="R20">
+        <v>6335</v>
+      </c>
+      <c r="S20">
+        <v>29.1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" t="s">
+        <v>104</v>
+      </c>
+      <c r="V20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W20" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2680</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21">
+        <v>2010</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21">
+        <v>231</v>
+      </c>
+      <c r="Q21">
+        <v>269</v>
+      </c>
+      <c r="R21">
+        <v>6296</v>
+      </c>
+      <c r="S21">
+        <v>29.5</v>
+      </c>
+      <c r="T21" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2664</v>
+      </c>
+      <c r="C22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22">
+        <v>2011</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22">
+        <v>235</v>
+      </c>
+      <c r="Q22">
+        <v>244</v>
+      </c>
+      <c r="R22">
+        <v>5896</v>
+      </c>
+      <c r="S22">
+        <v>26.5</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" t="s">
+        <v>49</v>
+      </c>
+      <c r="X22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2651</v>
+      </c>
+      <c r="C23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23">
+        <v>2001</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>107</v>
+      </c>
+      <c r="R23">
+        <v>2427</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+      <c r="T23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" t="s">
+        <v>115</v>
+      </c>
+      <c r="X23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2651</v>
+      </c>
+      <c r="C24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24">
+        <v>2001</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24">
+        <v>264</v>
+      </c>
+      <c r="Q24">
+        <v>121.5</v>
+      </c>
+      <c r="R24">
+        <v>2745</v>
+      </c>
+      <c r="S24">
+        <v>10.4</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
+        <v>119</v>
+      </c>
+      <c r="X24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2651</v>
+      </c>
+      <c r="C25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25">
+        <v>2001</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25">
+        <v>31.5</v>
+      </c>
+      <c r="Q25">
+        <v>22.5</v>
+      </c>
+      <c r="R25">
+        <v>487</v>
+      </c>
+      <c r="S25">
+        <v>15.5</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" t="s">
+        <v>115</v>
+      </c>
+      <c r="X25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2651</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>2001</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26">
+        <v>20.3</v>
+      </c>
+      <c r="Q26">
+        <v>44.7</v>
+      </c>
+      <c r="R26">
+        <v>1337</v>
+      </c>
+      <c r="S26">
+        <v>65.8</v>
+      </c>
+      <c r="T26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U26" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>119</v>
+      </c>
+      <c r="X26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2649</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27">
+        <v>2009</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>21.3</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27">
+        <v>226</v>
+      </c>
+      <c r="Q27">
+        <v>264</v>
+      </c>
+      <c r="R27">
+        <v>6335</v>
+      </c>
+      <c r="S27">
+        <v>30.3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" t="s">
+        <v>49</v>
+      </c>
+      <c r="X27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2648</v>
+      </c>
+      <c r="C28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28">
+        <v>2010</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>28.2</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28">
+        <v>231.8</v>
+      </c>
+      <c r="Q28">
+        <v>328.85</v>
+      </c>
+      <c r="R28">
+        <v>11439</v>
+      </c>
+      <c r="S28">
+        <v>55.02</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" t="s">
+        <v>49</v>
+      </c>
+      <c r="X28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2646</v>
+      </c>
+      <c r="C29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29">
+        <v>1996</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>33.5</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29">
+        <v>346.7</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29">
+        <v>10.8</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V29" t="s">
         <v>36</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W29" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y18" s="1" t="s">
+      <c r="X29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y29" t="s">
         <v>39</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z29" t="s">
         <v>40</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2664</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1">
-        <v>42</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="AA29" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2646</v>
+      </c>
+      <c r="C30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30">
+        <v>1996</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>33.5</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30">
+        <v>434.6</v>
+      </c>
+      <c r="Q30">
+        <v>174.7</v>
+      </c>
+      <c r="R30">
+        <v>3623</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>57</v>
+      </c>
+      <c r="X30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2646</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31">
+        <v>1996</v>
+      </c>
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>33.5</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31">
+        <v>34.6</v>
+      </c>
+      <c r="Q31">
+        <v>32.9</v>
+      </c>
+      <c r="R31">
+        <v>832</v>
+      </c>
+      <c r="S31">
+        <v>24.5</v>
+      </c>
+      <c r="T31" t="s">
+        <v>34</v>
+      </c>
+      <c r="U31" t="s">
+        <v>56</v>
+      </c>
+      <c r="V31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s">
+        <v>57</v>
+      </c>
+      <c r="X31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32">
+        <v>2023</v>
+      </c>
+      <c r="E32">
         <v>27</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="1">
-        <v>238</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>248</v>
-      </c>
-      <c r="R19" s="1">
-        <v>5809</v>
-      </c>
-      <c r="S19" s="1">
-        <v>25.9</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y19" s="1" t="s">
+      <c r="P32">
+        <v>13.1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T32" t="s">
+        <v>140</v>
+      </c>
+      <c r="U32" t="s">
+        <v>141</v>
+      </c>
+      <c r="V32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" t="s">
+        <v>69</v>
+      </c>
+      <c r="X32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y32" t="s">
         <v>39</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2664</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E20">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="Z32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="1">
-        <v>235</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>244</v>
-      </c>
-      <c r="R20" s="1">
-        <v>5896</v>
-      </c>
-      <c r="S20" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2653</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E21">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1">
-        <v>53</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="1">
-        <v>237</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>246</v>
-      </c>
-      <c r="R21" s="1">
-        <v>5722</v>
-      </c>
-      <c r="S21" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2651</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E22">
-        <v>26</v>
-      </c>
-      <c r="F22" s="1">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="1">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>107</v>
-      </c>
-      <c r="R22" s="1">
-        <v>2427</v>
-      </c>
-      <c r="S22" s="1">
-        <v>15</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2651</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="1">
-        <v>264</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>121.5</v>
-      </c>
-      <c r="R23" s="1">
-        <v>2745</v>
-      </c>
-      <c r="S23" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2651</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E24">
-        <v>26</v>
-      </c>
-      <c r="F24" s="1">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="R24" s="1">
-        <v>487</v>
-      </c>
-      <c r="S24" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2651</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P25" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="R25" s="1">
-        <v>1337</v>
-      </c>
-      <c r="S25" s="1">
-        <v>65.8</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2649</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E26">
-        <v>27</v>
-      </c>
-      <c r="F26" s="1">
-        <v>21.3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="1">
-        <v>226</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>264</v>
-      </c>
-      <c r="R26" s="1">
-        <v>6335</v>
-      </c>
-      <c r="S26" s="1">
-        <v>30.3</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2649</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2009</v>
-      </c>
-      <c r="E27">
-        <v>19</v>
-      </c>
-      <c r="F27" s="1">
-        <v>21.3</v>
-      </c>
-      <c r="G27" s="1">
-        <v>27</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="1">
-        <v>236</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>264</v>
-      </c>
-      <c r="R27" s="1">
-        <v>6335</v>
-      </c>
-      <c r="S27" s="1">
-        <v>29.1</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2648</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
-      <c r="F28" s="1">
-        <v>28.2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="1">
-        <v>231.8</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>328.85</v>
-      </c>
-      <c r="R28" s="1">
-        <v>11439</v>
-      </c>
-      <c r="S28" s="1">
-        <v>55.02</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2646</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1996</v>
-      </c>
-      <c r="E29">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="1">
-        <v>346.7</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2646</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1996</v>
-      </c>
-      <c r="E30">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>8</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P30" s="1">
-        <v>434.6</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>174.7</v>
-      </c>
-      <c r="R30" s="1">
-        <v>3623</v>
-      </c>
-      <c r="S30" s="1">
-        <v>8</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2646</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1996</v>
-      </c>
-      <c r="E31">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>8</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P31" s="1">
-        <v>34.6</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>32.9</v>
-      </c>
-      <c r="R31" s="1">
-        <v>832</v>
-      </c>
-      <c r="S31" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>4196</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E32">
-        <v>25</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="1">
-        <v>12</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S32" s="1">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>4106</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33">
         <v>1996</v>
       </c>
       <c r="E33">
         <v>15</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>38</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>6</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" t="s">
         <v>81</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>146</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
         <v>31</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" t="s">
         <v>147</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>62.5</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" t="s">
         <v>47</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33">
         <v>448</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33">
         <v>13.3</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" t="s">
         <v>35</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" t="s">
         <v>48</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" t="s">
         <v>69</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="X33" t="s">
         <v>69</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Y33" t="s">
         <v>39</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" t="s">
         <v>72</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AA33" t="s">
         <v>148</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AB33" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4070</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34">
         <v>2004</v>
       </c>
       <c r="E34">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1">
+        <v>19</v>
+      </c>
+      <c r="F34">
         <v>74.3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>9</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>91</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
         <v>139</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>30.4</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" t="s">
         <v>47</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34">
         <v>847.9</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34">
         <v>27</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" t="s">
         <v>34</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" t="s">
         <v>86</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" t="s">
         <v>48</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" t="s">
         <v>49</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="X34" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Y34" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z34" t="s">
         <v>150</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AA34" t="s">
         <v>151</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AB34" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4040</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35">
         <v>2008</v>
       </c>
       <c r="E35">
-        <v>22</v>
-      </c>
-      <c r="F35" s="1">
+        <v>19</v>
+      </c>
+      <c r="F35">
         <v>25.3</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>12</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" t="s">
         <v>32</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" t="s">
         <v>153</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>32.299999999999997</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" t="s">
         <v>47</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35">
         <v>416.2</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35">
         <v>13.1</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" t="s">
         <v>34</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U35" t="s">
         <v>35</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V35" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y35" t="s">
         <v>39</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z35" t="s">
         <v>51</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AA35" t="s">
         <v>154</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AB35" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>2938</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36">
         <v>2005</v>
       </c>
       <c r="E36">
-        <v>25</v>
-      </c>
-      <c r="F36" s="1">
+        <v>21</v>
+      </c>
+      <c r="F36">
         <v>25.3</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>12</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>46</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" t="s">
         <v>32</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>32.299999999999997</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" t="s">
         <v>47</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36">
         <v>416.2</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36">
         <v>13.1</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" t="s">
         <v>34</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U36" t="s">
         <v>35</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" t="s">
         <v>48</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" t="s">
         <v>49</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" t="s">
         <v>50</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" t="s">
         <v>39</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" t="s">
         <v>51</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AA36" t="s">
         <v>156</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AB36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>2820</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37">
         <v>1983</v>
       </c>
       <c r="E37">
         <v>12</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>38</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" t="s">
         <v>81</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" t="s">
         <v>68</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>11.6</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" t="s">
         <v>47</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" t="s">
         <v>47</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37">
         <v>35.6</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" t="s">
         <v>69</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" t="s">
         <v>69</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" t="s">
         <v>69</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" t="s">
         <v>57</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X37" t="s">
         <v>158</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y37" t="s">
         <v>159</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z37" t="s">
         <v>160</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AA37" t="s">
         <v>161</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AB37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>2745</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38">
         <v>2018</v>
       </c>
       <c r="E38">
-        <v>24</v>
-      </c>
-      <c r="F38" s="1">
+        <v>20</v>
+      </c>
+      <c r="F38">
         <v>21.6</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>11</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>90</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" t="s">
         <v>32</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" t="s">
         <v>33</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
         <v>86.6</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38">
         <v>2710</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38">
         <v>31.8</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" t="s">
         <v>34</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="U38" t="s">
         <v>86</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" t="s">
         <v>48</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" t="s">
         <v>49</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" t="s">
         <v>38</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Y38" t="s">
         <v>39</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="Z38" t="s">
         <v>51</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AA38" t="s">
         <v>163</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AB38" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>2672</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39">
         <v>2006</v>
       </c>
       <c r="E39">
-        <v>21</v>
-      </c>
-      <c r="F39" s="1">
+        <v>19</v>
+      </c>
+      <c r="F39">
         <v>28</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>7</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
         <v>139</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" t="s">
         <v>32</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" t="s">
         <v>113</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" t="s">
         <v>165</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>145</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
         <v>166</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39">
         <v>3532</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39">
         <v>25</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" t="s">
         <v>34</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U39" t="s">
         <v>56</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="V39" t="s">
         <v>36</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" t="s">
         <v>166</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="X39" t="s">
         <v>167</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Y39" t="s">
         <v>39</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" t="s">
         <v>40</v>
       </c>
-      <c r="AA39" s="1" t="s">
+      <c r="AA39" t="s">
         <v>168</v>
       </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AB39" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>4205</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40">
         <v>2018</v>
       </c>
       <c r="E40">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1">
+        <v>17</v>
+      </c>
+      <c r="F40">
         <v>22</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>18</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" t="s">
         <v>32</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" t="s">
         <v>33</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" t="s">
         <v>170</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>74.7</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" t="s">
         <v>47</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40">
         <v>1704</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40">
         <v>23.6</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" t="s">
         <v>171</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" t="s">
         <v>35</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" t="s">
         <v>48</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" t="s">
         <v>49</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" t="s">
         <v>172</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Y40" t="s">
         <v>39</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="Z40" t="s">
         <v>150</v>
       </c>
-      <c r="AA40" s="1" t="s">
+      <c r="AA40" t="s">
         <v>173</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AB40" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>4050</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41">
         <v>2001</v>
       </c>
       <c r="E41">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41">
         <v>27</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>11</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" t="s">
         <v>30</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>31</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" t="s">
         <v>32</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" t="s">
         <v>47</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41">
         <v>282.60000000000002</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" t="s">
         <v>47</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41">
         <v>42.6</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" t="s">
         <v>34</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" t="s">
         <v>36</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="V41" t="s">
         <v>48</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" t="s">
         <v>119</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" t="s">
         <v>158</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Y41" t="s">
         <v>39</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="Z41" t="s">
         <v>150</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AA41" t="s">
         <v>175</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AB41" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>4204</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42">
         <v>1992</v>
       </c>
       <c r="E42">
-        <v>21</v>
-      </c>
-      <c r="F42" s="1">
+        <v>14</v>
+      </c>
+      <c r="F42">
         <v>34</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>6</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" t="s">
         <v>177</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>62.4</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" t="s">
         <v>47</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42">
         <v>1451.9</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42">
         <v>23.7</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="T42" t="s">
         <v>34</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="U42" t="s">
         <v>50</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" t="s">
         <v>48</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" t="s">
         <v>69</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" t="s">
         <v>158</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" t="s">
         <v>178</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" t="s">
         <v>179</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AA42" t="s">
         <v>180</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AB42" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>4204</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43">
         <v>1992</v>
       </c>
       <c r="E43">
-        <v>21</v>
-      </c>
-      <c r="F43" s="1">
+        <v>14</v>
+      </c>
+      <c r="F43">
         <v>34</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>6</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>182</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" t="s">
         <v>183</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" t="s">
         <v>32</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43">
         <v>83.5</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" t="s">
         <v>47</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43">
         <v>1997.1</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43">
         <v>24.1</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" t="s">
         <v>34</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="U43" t="s">
         <v>50</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="V43" t="s">
         <v>48</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" t="s">
         <v>69</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" t="s">
         <v>158</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Y43" t="s">
         <v>178</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="Z43" t="s">
         <v>179</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AA43" t="s">
         <v>180</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AB43" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>4204</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44">
         <v>1992</v>
       </c>
       <c r="E44">
-        <v>21</v>
-      </c>
-      <c r="F44" s="1">
+        <v>14</v>
+      </c>
+      <c r="F44">
         <v>34</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>6</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>184</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
         <v>185</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44">
         <v>68</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44">
         <v>1913.2</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44">
         <v>27.9</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" t="s">
         <v>34</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U44" t="s">
         <v>50</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V44" t="s">
         <v>48</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" t="s">
         <v>69</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="X44" t="s">
         <v>158</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Y44" t="s">
         <v>178</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="Z44" t="s">
         <v>179</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AA44" t="s">
         <v>180</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AB44" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>4204</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45">
         <v>1992</v>
       </c>
       <c r="E45">
-        <v>21</v>
-      </c>
-      <c r="F45" s="1">
+        <v>14</v>
+      </c>
+      <c r="F45">
         <v>34</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>186</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" t="s">
         <v>187</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
         <v>31</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" t="s">
         <v>32</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
         <v>66.2</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" t="s">
         <v>47</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45">
         <v>1601.3</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45">
         <v>24.3</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="T45" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U45" t="s">
         <v>50</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="V45" t="s">
         <v>48</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" t="s">
         <v>69</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" t="s">
         <v>158</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" t="s">
         <v>178</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" t="s">
         <v>179</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AA45" t="s">
         <v>180</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AB45" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>3042</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46">
         <v>1994</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>23.9</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>14</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" t="s">
         <v>29</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>67</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
         <v>139</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" t="s">
         <v>33</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" t="s">
         <v>188</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" t="s">
         <v>47</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R46" t="s">
         <v>47</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46">
         <v>69</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="T46" t="s">
         <v>69</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="U46" t="s">
         <v>69</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="V46" t="s">
         <v>69</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" t="s">
         <v>57</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="X46" t="s">
         <v>158</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Y46" t="s">
         <v>189</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="Z46" t="s">
         <v>59</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AA46" t="s">
         <v>190</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AB46" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>2899</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47">
         <v>1990</v>
       </c>
       <c r="E47">
         <v>12</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>28</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>6</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="L47" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" t="s">
         <v>68</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" t="s">
         <v>33</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" t="s">
         <v>192</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47">
         <v>15.3</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" t="s">
         <v>47</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" t="s">
         <v>47</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47">
         <v>65.400000000000006</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" t="s">
         <v>69</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="U47" t="s">
         <v>69</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="V47" t="s">
         <v>69</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" t="s">
         <v>57</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="X47" t="s">
         <v>158</v>
       </c>
-      <c r="Y47" s="1" t="s">
+      <c r="Y47" t="s">
         <v>159</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="Z47" t="s">
         <v>150</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AA47" t="s">
         <v>193</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AB47" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6707,657 +6938,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.85546875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4196</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2833</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4162</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2745</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4205</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2664</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4127</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2009</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4040</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2008</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2821</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2006</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2672</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2006</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4070</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2004</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2995</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2001</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2995</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2001</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4050</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2001</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2651</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2001</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2651</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2001</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2837</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="4">
-        <v>2646</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1996</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4106</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1996</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3042</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1994</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2677</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1994</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2677</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1994</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2677</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1994</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="4">
-        <v>4204</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1992</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" s="4">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E33">
-    <sortCondition descending="1" ref="D1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7367,471 +6951,1855 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2011</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2006</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B11" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2004</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1992</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1994</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1996</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2006</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2001</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1994</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="17">
-        <v>2011</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B25" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2001</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1996</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2001</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="24">
-        <v>2010</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="24">
-        <v>2006</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2001</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="24">
-        <v>2023</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="24">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="13">
-        <v>2008</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" s="24">
-        <v>2004</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="26">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1992</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="D29" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1990</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B31" s="8">
+        <v>1983</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="14">
         <v>1994</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="24">
-        <v>2011</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D18" s="16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1996</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="15">
-        <v>2001</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="B21" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2006</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="24">
-        <v>2001</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="B24" s="15">
-        <v>1994</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B25" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B26" s="15">
-        <v>2001</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" s="24">
-        <v>1996</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="15">
-        <v>1994</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B29" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="15">
-        <v>1990</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" s="24">
-        <v>1983</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B33" s="17">
-        <v>1994</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3599EE85-1CDD-44E7-9793-D0DEEE7618CA}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2">
+        <v>4196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5">
+        <v>2651</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5">
+        <v>2001</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6">
+        <v>2821</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>2006</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7">
+        <v>4162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9">
+        <v>2833</v>
+      </c>
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10">
+        <v>2745</v>
+      </c>
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11">
+        <v>4070</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11">
+        <v>2004</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12">
+        <v>4040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12">
+        <v>2008</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13">
+        <v>2672</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13">
+        <v>2006</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14">
+        <v>2677</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>1994</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16">
+        <v>2664</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16">
+        <v>2011</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17">
+        <v>2677</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17">
+        <v>1994</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18">
+        <v>2646</v>
+      </c>
+      <c r="C18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18">
+        <v>1996</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19">
+        <v>4205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19">
+        <v>2018</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20">
+        <v>2995</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20">
+        <v>2001</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21">
+        <v>4128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21">
+        <v>2012</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22">
+        <v>2677</v>
+      </c>
+      <c r="C22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22">
+        <v>1994</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23">
+        <v>2995</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23">
+        <v>2001</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24">
+        <v>2651</v>
+      </c>
+      <c r="C24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D24">
+        <v>2001</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25">
+        <v>4106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25">
+        <v>1996</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26">
+        <v>4204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26">
+        <v>1992</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>361</v>
+      </c>
+      <c r="G26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>336</v>
+      </c>
+      <c r="G27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28">
+        <v>2837</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29">
+        <v>3042</v>
+      </c>
+      <c r="C29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29">
+        <v>1994</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30">
+        <v>4050</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30">
+        <v>2001</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31">
+        <v>4127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31">
+        <v>2009</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31">
+        <v>14.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition descending="1" ref="E1:E31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2">
+        <v>4196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>2833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4">
+        <v>4162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5">
+        <v>2745</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6">
+        <v>4205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7">
+        <v>4128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7">
+        <v>2012</v>
+      </c>
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8">
+        <v>2664</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8">
+        <v>2011</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12">
+        <v>4127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12">
+        <v>2009</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13">
+        <v>4040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13">
+        <v>2008</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15">
+        <v>2821</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15">
+        <v>2006</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16">
+        <v>2672</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16">
+        <v>2006</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17">
+        <v>4070</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17">
+        <v>2004</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>2995</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18">
+        <v>2001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19">
+        <v>2995</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19">
+        <v>2001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20">
+        <v>4050</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20">
+        <v>2001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21">
+        <v>2651</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21">
+        <v>2001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22">
+        <v>2651</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22">
+        <v>2001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23">
+        <v>2837</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24">
+        <v>2646</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24">
+        <v>1996</v>
+      </c>
+      <c r="E24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25">
+        <v>4106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25">
+        <v>1996</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26">
+        <v>3042</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26">
+        <v>1994</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27">
+        <v>2677</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27">
+        <v>1994</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28">
+        <v>2677</v>
+      </c>
+      <c r="C28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28">
+        <v>1994</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29">
+        <v>2677</v>
+      </c>
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29">
+        <v>1994</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>4204</v>
+      </c>
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30">
+        <v>1992</v>
+      </c>
+      <c r="E30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>